--- a/Элеонора Йер.xlsx
+++ b/Элеонора Йер.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -32,6 +32,7 @@
       <b val="1"/>
       <sz val="15"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -53,9 +54,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,102 +438,1210 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Йер Элеонора.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12" ht="15" customHeight="1"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец-эталон прикассы S813000224, 14 КК</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея из МП, 29 КК</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, эталоны дисплеев под мыло, 419-5 КК</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -2</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Нинель, Образец,Модуль 175 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП переформатирование ЗЯ, 372-7 КК</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-8 КК</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, выкрасы дисплеев под мыло, 419-6 КК</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, Образец, Поддон ЗЯ, 444КК-1</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец печати D215900707, 3 КК</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-9 КК</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, эталоны дисплеев под мыло, 419-6 КК</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны S813000403_разработка, 338-6 КК</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-7 КК</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея с новыми толкателями, 17 КК</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>21-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-3</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Феникс+, образец, стойка, № 145-2 ЮО</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев, 10 КК</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -3</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны ИНФЛЮЕНС малый формат, 141-7 КК</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы скатывающегося дисплея Глобал ,449 - 3 КК</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны S813000403_разработка, 338-7 КК</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП образцы накладок, 74-1 КК</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, Образец Поддон ЗЯ, 444 КК-2</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, образец, стойка, 445-2 КК</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Сигналы к бланку 684КК Градиент</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 775 МК Агентство Бус</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 680КК Инфлюенс</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал коробки к бланку 769 СФ Лореаль глорифаер</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 768 СФ Лореаль навигация Vichy и Деркос</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>14-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 765КК Глобал</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 682-1 первые 3 позиции под хиты</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 4 КК Брак</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 8 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 10 МК</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 767 КК</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 775 МК</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>13-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 762 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 774 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 17 СФ</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 760 СФ</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>14-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 768 СФ</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 11 СФ</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 764 МК</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 682-1 КК</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 769 СФ</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>12-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 726 СФ</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 754 КК</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 35 МК</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 36 МК</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 682 КК</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 27 КК</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 756 КК</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 683 КК</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 766 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Нинель,Наклейка,Образец № 4 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП переформатирование ЗЯ,  372-6 КК</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Хот Спот и Дисплей, 8МК 19.01 вечер СТРОГО!!!</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>19-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Pepsico, 3D , стойка № 177 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>18-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП, к Заказу 682/1, промосекции, шелфтокеры, 448-1 КК</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Хот Спот и Дисплей, 8МК -2</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Диваж, 3Д, 3Д Бальзамы и пудры, ТЗ 6СФ</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>24-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Нинель,,Модуль 175 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, проверка дизайна в МП, 2 КК</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>АртВизаж, 3D макет оборудования для ЗЯ, 438-2 КК</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Диваж, 3Д, 3Д Бальзамы и пудры, ТЗ 6СФ-1</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, Глобал изменение в МП-задники, уши и дизайн, 30 КК</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 745 МК</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 24 СФ</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 31 МК</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>27-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Спектрум, Образец-сигнал, Стойка-метал № 159 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Градиент, эскизы и образцы, к Заказу 682/1, промосекции, шелфтокеры, 448КК</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
+      <c r="C78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
+      <c r="C79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
+      <c r="C80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
+      <c r="C81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
+      <c r="C82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
+      <c r="C83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
+      <c r="C84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="2" t="n"/>
+      <c r="C85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
+      <c r="C87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
+      <c r="C88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
+      <c r="C89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
+      <c r="C90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
+      <c r="C91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
+      <c r="C92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
+      <c r="C93" s="2" t="n"/>
+    </row>
     <row r="94"/>
     <row r="95"/>
     <row r="96"/>

--- a/Элеонора Йер.xlsx
+++ b/Элеонора Йер.xlsx
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
@@ -458,12 +458,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образец-эталон прикассы S813000224, 14 КК</t>
+          <t>DEKA, Образец, POPAI 2022, 26 дисплей с подсветкой SANOVA, 39 АН</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20-01-2022</t>
+          <t>22-12-2021</t>
         </is>
       </c>
     </row>
@@ -473,12 +473,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея из МП, 29 КК</t>
+          <t>Градиент, образец упаковки из МГК для календаря, 371 -4 КК</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -488,12 +488,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Градиент, эталоны дисплеев под мыло, 419-5 КК</t>
+          <t>Лореаль, Образец, Лайнер Бары для Шкафов, 212СФ-2</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>09-12-2021</t>
         </is>
       </c>
     </row>
@@ -503,12 +503,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -2</t>
+          <t>Подружка, образцы тендер, 422-1 КК</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Нинель, Образец,Модуль 175 ЧЯ</t>
+          <t>Градиент, образец печати задников, 429 КК</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП переформатирование ЗЯ, 372-7 КК</t>
+          <t>Градиент Stellary кассета S813000364 выкрасы 353КК</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -548,12 +548,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-8 КК</t>
+          <t>ЦП, шелфтокеры ББ, 425 КК</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Градиент, выкрасы дисплеев под мыло, 419-6 КК</t>
+          <t>Градиент, заготовки для выкрасов BB7000111, 301-3 КК + цветопробы</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Градиент, Образец, Поддон ЗЯ, 444КК-1</t>
+          <t>Диваж, Образец, Поддон на 60см, ТЗ 218СФ</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>08-12-2021</t>
         </is>
       </c>
     </row>
@@ -593,12 +593,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образец печати D215900707, 3 КК</t>
+          <t>SHU, образцы,модули , № 149 ЧЯ-2</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -608,12 +608,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ</t>
+          <t>Градиент, образцы-эталоны BB7000111, 301-5 КК</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>07-12-2021</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-9 КК</t>
+          <t>Градиент, образцы поддонов РБ, 390-2 КК</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Градиент, эталоны дисплеев под мыло, 419-6 КК</t>
+          <t>Бос Тим (Амвэй), Образцы,Ценникодержатели, 48МК</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>24-12-2021</t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны S813000403_разработка, 338-6 КК</t>
+          <t>Нинель, Образец, Модуль-Оборудование №165 ЧЯ</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12-01-2022</t>
+          <t>07-12-2021</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-7 КК</t>
+          <t>Инситех, Образцы подложки, 30МК</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея с новыми толкателями, 17 КК</t>
+          <t>Градиент, образец кассеты S813000334, 432 КК</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-3</t>
+          <t>Лореаль, Образец, Визибилити Пакет 2022, ТЗ 201СФ-3</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12-01-2022</t>
+          <t>03-12-2021</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Феникс+, образец, стойка, № 145-2 ЮО</t>
+          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-7 КК</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14-01-2022</t>
+          <t>27-12-2021</t>
         </is>
       </c>
     </row>
@@ -728,12 +728,12 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев, 10 КК</t>
+          <t>Градиент, выкрасы дисплеев под мыло, 419-4 КК</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18-01-2022</t>
+          <t>28-12-2021</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -3</t>
+          <t>Navigator, образец, стойка, № 137-3 ЮО</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20-01-2022</t>
+          <t>14-12-2021</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны ИНФЛЮЕНС малый формат, 141-7 КК</t>
+          <t>Градиент, образцы кассет , 353-8 КК</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>20-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-1</t>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-6 КК</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>23-12-2021</t>
         </is>
       </c>
     </row>
@@ -788,12 +788,12 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образцы скатывающегося дисплея Глобал ,449 - 3 КК</t>
+          <t>Градиент, Образцы, Эталоны, Дисплеи, 443КК</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>22-12-2021</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны S813000403_разработка, 338-7 КК</t>
+          <t>Градиент, образцы-эталоны дисплеев, 372-5 КК</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19-01-2022</t>
+          <t>22-12-2021</t>
         </is>
       </c>
     </row>
@@ -818,12 +818,12 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП образцы накладок, 74-1 КК</t>
+          <t>Нинель, Образец, Модуль № 170 ЧЯ</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Градиент, Образец Поддон ЗЯ, 444 КК-2</t>
+          <t>Лазер Сервис, образцы печати топперов, 439 КК</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>19-01-2022</t>
+          <t>21-12-2021</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Градиент, образец, стойка, 445-2 КК</t>
+          <t>S813000386 Тест Градиент 3КФ</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>13-01-2022</t>
+          <t>03-12-2021</t>
         </is>
       </c>
     </row>
@@ -863,12 +863,12 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Сигналы к бланку 684КК Градиент</t>
+          <t>Градиент, образцы дисплеев и поддонов ВС для сети РИВ ГОШ, 412-3 КК</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>26-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 775 МК Агентство Бус</t>
+          <t>Нинель,Образец, Наклейка и верхняя панель № 161 ЧЯ-1</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>13-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 680КК Инфлюенс</t>
+          <t>№23 ШС образец таблиц</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Сигнал коробки к бланку 769 СФ Лореаль глорифаер</t>
+          <t>Сигнал к бланку 728 МК Kiki</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>09-12-2021</t>
         </is>
       </c>
     </row>
@@ -923,12 +923,12 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 768 СФ Лореаль навигация Vichy и Деркос</t>
+          <t>Сигнал к бланку 722 МК Инситех</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14-01-2022</t>
+          <t>10-12-2021</t>
         </is>
       </c>
     </row>
@@ -938,12 +938,12 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Сигнал к бланку 765КК Глобал</t>
+          <t>Сигнал к бланку 756 КК Градиент</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>23-12-2021</t>
         </is>
       </c>
     </row>
@@ -953,12 +953,12 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 682-1 первые 3 позиции под хиты</t>
+          <t>Сигнал к бланку 732 СФ Лореаль лайнер бары</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>19-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 4 КК Брак</t>
+          <t>Сигнал к бланку 696 ЮО Vivo</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>27-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -983,12 +983,12 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 8 ЧЯ</t>
+          <t>Сигнал к бланку 710 ЮО ИП Сысоева</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>19-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 10 МК</t>
+          <t>Сигнал к бланку 704 КК Градиент Глобал</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>20-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 767 КК</t>
+          <t>Сигнал к бланку 679 КК Градиент комплект дисплеев в шкаф</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 775 МК</t>
+          <t>Сигналы к бланку 716 ЧЯ Нинель</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>13-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 762 ЧЯ</t>
+          <t>Сигнал к бланку 720 СФ Лореаль шелфтокеры</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>12-01-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 774 ЧЯ</t>
+          <t>Сигнал к бланку 708 ЧЯ Ninelle</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>12-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 17 СФ</t>
+          <t>Сигнал к бланку 703КК Градиент BB</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
@@ -1088,12 +1088,12 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 760 СФ</t>
+          <t>Маркировка 763 КК</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>14-01-2022</t>
+          <t>28-12-2021</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 768 СФ</t>
+          <t>Маркировка 759 МК</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>20-01-2022</t>
+          <t>29-12-2021</t>
         </is>
       </c>
     </row>
@@ -1118,12 +1118,12 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 11 СФ</t>
+          <t>Маркировка 756 КК</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>24-12-2021</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 764 МК</t>
+          <t>Маркировка 721 СФ</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>12-01-2022</t>
+          <t>24-12-2021</t>
         </is>
       </c>
     </row>
@@ -1148,12 +1148,12 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 682-1 КК</t>
+          <t>Маркировка 765 КК</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>30-12-2021</t>
         </is>
       </c>
     </row>
@@ -1163,12 +1163,12 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 769 СФ</t>
+          <t>Маркировка 755 КК</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>12-01-2022</t>
+          <t>27-12-2021</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 726 СФ</t>
+          <t>Маркировка 720 СФ</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>15-12-2021</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 754 КК</t>
+          <t>Маркировка 730 СФ</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>23-12-2021</t>
         </is>
       </c>
     </row>
@@ -1208,12 +1208,12 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 35 МК</t>
+          <t>Маркировка 727 МК</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>28-01-2022</t>
+          <t>15-12-2021</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 36 МК</t>
+          <t>Маркировка 678 СФ</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>28-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -1238,12 +1238,12 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 682 КК</t>
+          <t>Маркировка 689 КК</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>03-12-2021</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 27 КК</t>
+          <t>Маркировка 739 КК</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>28-01-2022</t>
+          <t>21-12-2021</t>
         </is>
       </c>
     </row>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 756 КК</t>
+          <t>Маркировка 703 КК</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>16-12-2021</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 683 КК</t>
+          <t>Маркировка 750 МК</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>28-01-2022</t>
+          <t>29-12-2021</t>
         </is>
       </c>
     </row>
@@ -1298,12 +1298,12 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 766 ЧЯ</t>
+          <t>Маркировка 713 СФ</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>19-01-2022</t>
+          <t>14-12-2021</t>
         </is>
       </c>
     </row>
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Нинель,Наклейка,Образец № 4 ЧЯ-1</t>
+          <t>Маркировка 696 ЮО</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>25-01-2022</t>
+          <t>14-12-2021</t>
         </is>
       </c>
     </row>
@@ -1328,12 +1328,12 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП переформатирование ЗЯ,  372-6 КК</t>
+          <t>Маркировка 732 СФ</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>20-01-2022</t>
+          <t>15-12-2021</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, 3Д, Хот Спот и Дисплей, 8МК 19.01 вечер СТРОГО!!!</t>
+          <t>Маркировка 695 КК</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>19-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -1358,12 +1358,12 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Pepsico, 3D , стойка № 177 ЧЯ</t>
+          <t>Маркировка 714 СФ</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>18-01-2022</t>
+          <t>14-12-2021</t>
         </is>
       </c>
     </row>
@@ -1373,12 +1373,12 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП, к Заказу 682/1, промосекции, шелфтокеры, 448-1 КК</t>
+          <t>Маркировка 748 МК</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>29-12-2021</t>
         </is>
       </c>
     </row>
@@ -1388,12 +1388,12 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Лореаль, 3Д, Хот Спот и Дисплей, 8МК -2</t>
+          <t>Маркировка 672 КК</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>25-01-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1403,12 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Диваж, 3Д, 3Д Бальзамы и пудры, ТЗ 6СФ</t>
+          <t>Маркировка 684 КК</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>24-01-2022</t>
+          <t>30-12-2021</t>
         </is>
       </c>
     </row>
@@ -1418,12 +1418,12 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Нинель,,Модуль 175 ЧЯ-1</t>
+          <t>Маркировка 629 СФ</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Градиент, проверка дизайна в МП, 2 КК</t>
+          <t>Маркировка 704 КК</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>03-12-2021</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1448,12 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>АртВизаж, 3D макет оборудования для ЗЯ, 438-2 КК</t>
+          <t>Маркировка 751 МК</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>29-12-2021</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Диваж, 3Д, 3Д Бальзамы и пудры, ТЗ 6СФ-1</t>
+          <t>Маркировка 671 ЧЯ</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>27-01-2022</t>
+          <t>01-12-2021</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Градиент, Глобал изменение в МП-задники, уши и дизайн, 30 КК</t>
+          <t>Маркировка 757 МК</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>27-01-2022</t>
+          <t>29-12-2021</t>
         </is>
       </c>
     </row>
@@ -1493,12 +1493,12 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 745 МК</t>
+          <t>Маркировка 665 КК</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>08-12-2021</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 24 СФ</t>
+          <t>Маркировка 718 СФ</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>26-01-2022</t>
+          <t>07-12-2021</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Маркировка 31 МК</t>
+          <t>Маркировка 758 МК</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>27-01-2022</t>
+          <t>29-12-2021</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1538,12 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Спектрум, Образец-сигнал, Стойка-метал № 159 ЧЯ</t>
+          <t>Маркировка 700 ЮО</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>07-12-2021</t>
         </is>
       </c>
     </row>
@@ -1553,103 +1553,375 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Градиент, эскизы и образцы, к Заказу 682/1, промосекции, шелфтокеры, 448КК</t>
+          <t>Маркировка 667 КК</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>02-12-2021</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
-      <c r="C78" s="2" t="n"/>
+      <c r="A78" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 694 КК</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
-      <c r="C79" s="2" t="n"/>
+      <c r="A79" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 706 КК</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>02-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
-      <c r="C80" s="2" t="n"/>
+      <c r="A80" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 710 ЮО</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
-      <c r="C81" s="2" t="n"/>
+      <c r="A81" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 679 КК</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>01-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
-      <c r="C82" s="2" t="n"/>
+      <c r="A82" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 708 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
-      <c r="C83" s="2" t="n"/>
+      <c r="A83" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 716 ЧЯ</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
-      <c r="C84" s="2" t="n"/>
+      <c r="A84" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 702 СФ</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
-      <c r="C85" s="2" t="n"/>
+      <c r="A85" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Aloe Serum posm luxe, ТЗ 216СФ-2</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="2" t="n"/>
+      <c r="A86" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Бос Тим (Амвэй), 3Д ,Ценникодержатели, 48МК-1</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>28-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="2" t="n"/>
+      <c r="A87" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>АртВизаж, 3D макет оборудования для ЗЯ, 438 КК</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
-      <c r="C88" s="2" t="n"/>
+      <c r="A88" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>АртВизаж, 3D макет оборудования для ЗЯ, 438-1 КК</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
-      <c r="C89" s="2" t="n"/>
+      <c r="A89" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Лореаль, 3Д, Serum GRN Дисплей + полка паразит, ТЗ 228СФ</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
-      <c r="C90" s="2" t="n"/>
+      <c r="A90" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 719 СФ</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>30-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
-      <c r="C91" s="2" t="n"/>
+      <c r="A91" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 734 СФ</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
-      <c r="C92" s="2" t="n"/>
+      <c r="A92" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 733 СФ</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
-      <c r="C93" s="2" t="n"/>
-    </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
+      <c r="A93" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Маркировка 681 КК</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>91</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Маркировка 752 СФ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>31-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>92</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Маркировка 658 СФ</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>03-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>93</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Маркировка 642 СФ</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>94</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Маркировка 726 СФ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>95</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Маркировка 709 СФ</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>96</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Маркировка 698 СФ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>97</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Маркировка 702 СФ</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>98</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Градиент, комплект Stellary, образец, №19 ЮЛ</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+    </row>
     <row r="102"/>
     <row r="103"/>
     <row r="104"/>
